--- a/process/Mapping-file.xlsx
+++ b/process/Mapping-file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="25600" windowHeight="8340"/>
+    <workbookView activeTab="0" windowWidth="24940" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45" count="45">
   <si>
     <t>Client Services &amp; Support</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Thought Machine</t>
   </si>
   <si>
+    <t>X1</t>
+  </si>
+  <si>
     <t>TCS BaNCS</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Entrust</t>
   </si>
   <si>
+    <t>X2</t>
+  </si>
+  <si>
     <t>Digital Security</t>
   </si>
   <si>
@@ -140,6 +146,9 @@
   </si>
   <si>
     <t>Ping Identity</t>
+  </si>
+  <si>
+    <t>X3</t>
   </si>
   <si>
     <t>Facilities &amp; Asset Management</t>
@@ -222,10 +231,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="122" tabSelected="1">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A15" workbookViewId="0" zoomScale="122" tabSelected="1">
+      <selection activeCell="F26" sqref="F26:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="67.5" defaultRowHeight="15"/>
@@ -237,7 +246,7 @@
     <col min="5" max="16384" style="1" width="12.856370192307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.598360655737707">
+    <row r="1" spans="1:6" ht="16.598360655737707">
       <c r="A1" t="inlineStr">
         <is>
           <t>SysID</t>
@@ -263,8 +272,13 @@
           <t>Market Leaders</t>
         </is>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended Gartner Apps</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.598360655737707">
       <c r="A2" t="inlineStr">
         <is>
           <t>SYSID-06935</t>
@@ -282,8 +296,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="inlineStr">
         <is>
           <t>SYSID-08163</t>
@@ -299,10 +316,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="inlineStr">
         <is>
           <t>SYSID-06720</t>
@@ -322,17 +342,20 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="inlineStr">
         <is>
           <t>SYSID-00274</t>
         </is>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -343,114 +366,132 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="inlineStr">
         <is>
           <t>SYSID-00602</t>
         </is>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="inlineStr">
         <is>
           <t>SYSID-06879</t>
         </is>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="inlineStr">
         <is>
           <t>SYSID-07418</t>
         </is>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SYSID-01809</t>
+        </is>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Customer Engagement &amp; Digital Experience</t>
+        </is>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SYSID-06591</t>
+        </is>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SYSID-01809</t>
-        </is>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Customer Engagement &amp; Digital Experience</t>
-        </is>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SYSID-06591</t>
-        </is>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.598360655737707">
       <c r="A11" t="inlineStr">
         <is>
           <t>SYSID-02805</t>
         </is>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -461,48 +502,57 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="inlineStr">
         <is>
           <t>SYSID-08157</t>
         </is>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SYSID-05915</t>
+        </is>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SYSID-05915</t>
-        </is>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="inlineStr">
         <is>
           <t>SYSID-06003</t>
@@ -512,42 +562,48 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="inlineStr">
         <is>
           <t>SYSID-07187</t>
         </is>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="inlineStr">
         <is>
           <t>SYSID-06543</t>
         </is>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -558,67 +614,79 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="inlineStr">
         <is>
           <t>SYSID-09034</t>
         </is>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="inlineStr">
         <is>
           <t>SYSID-06999</t>
         </is>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="inlineStr">
         <is>
           <t>SYSID-08357</t>
         </is>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="inlineStr">
         <is>
           <t>SYSID-05814</t>
@@ -628,16 +696,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="inlineStr">
         <is>
           <t>SYSID-06004</t>
@@ -647,26 +718,29 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="inlineStr">
         <is>
           <t>SYSID-08158</t>
         </is>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -674,135 +748,156 @@
       <c r="E22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="inlineStr">
         <is>
           <t>SYSID-08509</t>
         </is>
       </c>
       <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SYSID-08559</t>
+        </is>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Internal Financial Reporting</t>
+        </is>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.598360655737707">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SYSID-09283</t>
+        </is>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sales Operations</t>
+        </is>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SYSID-00309</t>
+        </is>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SYSID-08400</t>
+        </is>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Project Management</t>
-        </is>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SYSID-08559</t>
-        </is>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Internal Financial Reporting</t>
-        </is>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SYSID-09283</t>
-        </is>
-      </c>
-      <c r="B25" t="s">
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SYSID-05598</t>
+        </is>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sales Operations</t>
-        </is>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SYSID-00309</t>
-        </is>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>SYSID-08400</t>
-        </is>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SYSID-05598</t>
-        </is>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="inlineStr">
         <is>
           <t>SYSID-06396</t>
         </is>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -813,10 +908,13 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="inlineStr">
         <is>
           <t>SYSID-00259</t>
@@ -826,16 +924,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="inlineStr">
         <is>
           <t>SYSID-08925</t>
@@ -845,209 +946,242 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SYSID-08703</t>
+        </is>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SYSID-05897</t>
+        </is>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Accounts Management</t>
+        </is>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SYSID-08001</t>
+        </is>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Contract Management</t>
+        </is>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SYSID-06378</t>
+        </is>
+      </c>
+      <c r="B35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SYSID-08703</t>
-        </is>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SYSID-06380</t>
+        </is>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>End User Computing</t>
+        </is>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SYSID-06929</t>
+        </is>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SYSID-07909</t>
+        </is>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SYSID-08901</t>
+        </is>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SYSID-08975</t>
+        </is>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
         <v>40</v>
       </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>SYSID-05897</t>
-        </is>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Accounts Management</t>
-        </is>
-      </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>SYSID-08001</t>
-        </is>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Contract Management</t>
-        </is>
-      </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>SYSID-06378</t>
-        </is>
-      </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>SYSID-06380</t>
-        </is>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>End User Computing</t>
-        </is>
-      </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>SYSID-06929</t>
-        </is>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>SYSID-07909</t>
-        </is>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>SYSID-08901</t>
-        </is>
-      </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="F40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SYSID-01688</t>
+        </is>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
         <v>41</v>
       </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>SYSID-08975</t>
-        </is>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>SYSID-01688</t>
-        </is>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>39</v>
+      <c r="F41" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/process/Mapping-file.xlsx
+++ b/process/Mapping-file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66140\Downloads\2026\Tools\App-Rat UI Build\App-Rat\process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66140\Downloads\2026\Tools\App-Rat UI Build\11_02\App-Rat\process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E62C50-0AE4-4715-A579-304F21CEF3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28214BFE-A0DD-49E4-940A-AE450C72E3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1402,9 +1402,6 @@
     <t>Threat Intelligence &amp; Response</t>
   </si>
   <si>
-    <t>Software Development &amp; Mgmt.</t>
-  </si>
-  <si>
     <t>Financial Advisory &amp; Planning</t>
   </si>
   <si>
@@ -1460,6 +1457,9 @@
   </si>
   <si>
     <t>Finance</t>
+  </si>
+  <si>
+    <t>Software Development/Mgmt.</t>
   </si>
 </sst>
 </file>
@@ -1836,11 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6 B13 B21 B30 B40 B53 B57:B60 B68 B72:B77 B98 B106:B107 B117:B119 B126 B133:B135 B140:B141 B146 B159 B161:B162 B164:B167 B171 B187:B188 B200 B204 B210 B234 B245 B256 B263 B268 B274:B276 B279 B287 B291:B292 B294 B296 B312 B319 B322 B340 B352:B353 B359 B362 B364:B365 B367:B368 B375:B377 B385"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15"/>
@@ -1872,7 +1871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1932,7 +1931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1972,7 +1971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2052,7 +2051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2112,7 +2111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2152,7 +2151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2180,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -2192,7 +2191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2200,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -2212,7 +2211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -2232,7 +2231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -2272,7 +2271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -2292,7 +2291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
@@ -2392,7 +2391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C30" t="s">
         <v>80</v>
@@ -2452,7 +2451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -2472,7 +2471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
@@ -2492,7 +2491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -2572,7 +2571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
@@ -2592,7 +2591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
@@ -2612,7 +2611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -2637,10 +2636,10 @@
         <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
@@ -2652,7 +2651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
@@ -2672,7 +2671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
@@ -2692,7 +2691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
@@ -2712,7 +2711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
@@ -2732,7 +2731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
@@ -2792,16 +2791,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="D48" t="s">
         <v>2</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>80</v>
@@ -2912,7 +2911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -2920,7 +2919,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D54" t="s">
         <v>2</v>
@@ -2932,7 +2931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2952,7 +2951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>9</v>
@@ -2997,7 +2996,7 @@
         <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>9</v>
@@ -3017,7 +3016,7 @@
         <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>80</v>
@@ -3037,7 +3036,7 @@
         <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>9</v>
@@ -3052,7 +3051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>113</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
@@ -3072,15 +3071,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D62" t="s">
         <v>2</v>
@@ -3092,7 +3091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>115</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>116</v>
       </c>
@@ -3120,7 +3119,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
@@ -3132,7 +3131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>117</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
@@ -3152,16 +3151,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="D66" t="s">
         <v>2</v>
       </c>
@@ -3172,7 +3171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>119</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>13</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D67" t="s">
         <v>2</v>
@@ -3197,7 +3196,7 @@
         <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>9</v>
@@ -3212,7 +3211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>122</v>
       </c>
@@ -3240,7 +3239,7 @@
         <v>11</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D70" t="s">
         <v>2</v>
@@ -3252,7 +3251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>123</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>9</v>
@@ -3297,7 +3296,7 @@
         <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>68</v>
@@ -3317,7 +3316,7 @@
         <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>68</v>
@@ -3337,7 +3336,7 @@
         <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>9</v>
@@ -3357,7 +3356,7 @@
         <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>9</v>
@@ -3377,7 +3376,7 @@
         <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>68</v>
@@ -3392,7 +3391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>130</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>131</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>13</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D79" t="s">
         <v>2</v>
@@ -3432,7 +3431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>132</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>133</v>
       </c>
@@ -3460,7 +3459,7 @@
         <v>13</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
@@ -3472,16 +3471,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="D82" t="s">
         <v>2</v>
       </c>
@@ -3492,16 +3491,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="D83" t="s">
         <v>2</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>136</v>
       </c>
@@ -3520,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
@@ -3532,7 +3531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>137</v>
       </c>
@@ -3552,7 +3551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>138</v>
       </c>
@@ -3560,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
@@ -3572,7 +3571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>139</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>19</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
@@ -3592,7 +3591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>140</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>141</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D89" t="s">
         <v>2</v>
@@ -3632,7 +3631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>142</v>
       </c>
@@ -3640,7 +3639,7 @@
         <v>19</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
@@ -3652,7 +3651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>143</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D91" t="s">
         <v>2</v>
@@ -3672,7 +3671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>144</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>19</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
@@ -3692,7 +3691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>145</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>146</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>147</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>19</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D95" t="s">
         <v>2</v>
@@ -3752,7 +3751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>148</v>
       </c>
@@ -3772,7 +3771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>149</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>150</v>
       </c>
       <c r="B98" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>80</v>
@@ -3812,7 +3811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>151</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>152</v>
       </c>
@@ -3840,7 +3839,7 @@
         <v>19</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D100" t="s">
         <v>2</v>
@@ -3852,7 +3851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>153</v>
       </c>
@@ -3872,7 +3871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>154</v>
       </c>
@@ -3880,7 +3879,7 @@
         <v>19</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D102" t="s">
         <v>2</v>
@@ -3892,7 +3891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>155</v>
       </c>
@@ -3912,7 +3911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>156</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>157</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>19</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D105" t="s">
         <v>2</v>
@@ -3957,7 +3956,7 @@
         <v>158</v>
       </c>
       <c r="B106" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>80</v>
@@ -3977,7 +3976,7 @@
         <v>159</v>
       </c>
       <c r="B107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>68</v>
@@ -3992,7 +3991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>160</v>
       </c>
@@ -4012,7 +4011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>161</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>162</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>163</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>164</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>165</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>166</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>19</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -4132,7 +4131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>167</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>168</v>
       </c>
@@ -4177,10 +4176,10 @@
         <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D117" t="s">
         <v>2</v>
@@ -4197,10 +4196,10 @@
         <v>170</v>
       </c>
       <c r="B118" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D118" t="s">
         <v>2</v>
@@ -4217,10 +4216,10 @@
         <v>171</v>
       </c>
       <c r="B119" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D119" t="s">
         <v>2</v>
@@ -4232,7 +4231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1">
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>172</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1">
+    <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
         <v>173</v>
       </c>
@@ -4272,7 +4271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1">
+    <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
         <v>174</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>47</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D122" t="s">
         <v>2</v>
@@ -4292,7 +4291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1">
+    <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
         <v>175</v>
       </c>
@@ -4300,7 +4299,7 @@
         <v>13</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D123" t="s">
         <v>2</v>
@@ -4312,7 +4311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1">
+    <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
         <v>176</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1">
+    <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
         <v>177</v>
       </c>
@@ -4357,10 +4356,10 @@
         <v>178</v>
       </c>
       <c r="B126" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D126" t="s">
         <v>2</v>
@@ -4372,7 +4371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1">
+    <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
         <v>179</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1">
+    <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
         <v>180</v>
       </c>
@@ -4412,7 +4411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1">
+    <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
         <v>181</v>
       </c>
@@ -4432,7 +4431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1">
+    <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
         <v>182</v>
       </c>
@@ -4440,7 +4439,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D130" t="s">
         <v>2</v>
@@ -4452,7 +4451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1">
+    <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
         <v>183</v>
       </c>
@@ -4472,7 +4471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1">
+    <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
         <v>184</v>
       </c>
@@ -4480,7 +4479,7 @@
         <v>19</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D132" t="s">
         <v>2</v>
@@ -4497,7 +4496,7 @@
         <v>185</v>
       </c>
       <c r="B133" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>80</v>
@@ -4517,7 +4516,7 @@
         <v>186</v>
       </c>
       <c r="B134" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>68</v>
@@ -4537,7 +4536,7 @@
         <v>187</v>
       </c>
       <c r="B135" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>9</v>
@@ -4552,7 +4551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1">
+    <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
         <v>188</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>47</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D136" t="s">
         <v>2</v>
@@ -4572,7 +4571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1">
+    <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
         <v>189</v>
       </c>
@@ -4580,7 +4579,7 @@
         <v>11</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D137" t="s">
         <v>2</v>
@@ -4592,7 +4591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1">
+    <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
         <v>190</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>13</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D138" t="s">
         <v>2</v>
@@ -4612,7 +4611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1">
+    <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
         <v>191</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>192</v>
       </c>
       <c r="B140" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>9</v>
@@ -4657,7 +4656,7 @@
         <v>193</v>
       </c>
       <c r="B141" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>9</v>
@@ -4672,7 +4671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1">
+    <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
         <v>194</v>
       </c>
@@ -4680,7 +4679,7 @@
         <v>16</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D142" t="s">
         <v>2</v>
@@ -4692,7 +4691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1">
+    <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
         <v>195</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>16</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D143" t="s">
         <v>2</v>
@@ -4712,7 +4711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1">
+    <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
         <v>196</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1">
+    <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
         <v>197</v>
       </c>
@@ -4740,7 +4739,7 @@
         <v>11</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D145" t="s">
         <v>2</v>
@@ -4757,10 +4756,10 @@
         <v>198</v>
       </c>
       <c r="B146" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -4772,7 +4771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1">
+    <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
         <v>199</v>
       </c>
@@ -4792,7 +4791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1">
+    <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
         <v>200</v>
       </c>
@@ -4812,7 +4811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1">
+    <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
         <v>201</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>13</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D149" t="s">
         <v>2</v>
@@ -4832,7 +4831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1">
+    <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
         <v>202</v>
       </c>
@@ -4840,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D150" t="s">
         <v>2</v>
@@ -4852,7 +4851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1">
+    <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
         <v>203</v>
       </c>
@@ -4872,7 +4871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1">
+    <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
         <v>204</v>
       </c>
@@ -4880,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D152" t="s">
         <v>2</v>
@@ -4892,7 +4891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1">
+    <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
         <v>205</v>
       </c>
@@ -4900,7 +4899,7 @@
         <v>16</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D153" t="s">
         <v>2</v>
@@ -4912,7 +4911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1">
+    <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
         <v>206</v>
       </c>
@@ -4920,7 +4919,7 @@
         <v>19</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D154" t="s">
         <v>2</v>
@@ -4932,7 +4931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1">
+    <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
         <v>207</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1">
+    <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
         <v>208</v>
       </c>
@@ -4972,15 +4971,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1">
+    <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>458</v>
+      <c r="C157" t="s">
+        <v>477</v>
       </c>
       <c r="D157" t="s">
         <v>2</v>
@@ -4992,7 +4991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1">
+    <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
         <v>210</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>211</v>
       </c>
       <c r="B159" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>9</v>
@@ -5032,7 +5031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1">
+    <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
         <v>212</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>213</v>
       </c>
       <c r="B161" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>80</v>
@@ -5077,7 +5076,7 @@
         <v>214</v>
       </c>
       <c r="B162" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>68</v>
@@ -5092,7 +5091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1">
+    <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
         <v>215</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>13</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D163" t="s">
         <v>2</v>
@@ -5117,7 +5116,7 @@
         <v>216</v>
       </c>
       <c r="B164" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>9</v>
@@ -5137,7 +5136,7 @@
         <v>217</v>
       </c>
       <c r="B165" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>9</v>
@@ -5157,7 +5156,7 @@
         <v>218</v>
       </c>
       <c r="B166" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>9</v>
@@ -5177,10 +5176,10 @@
         <v>219</v>
       </c>
       <c r="B167" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D167" t="s">
         <v>2</v>
@@ -5192,7 +5191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1">
+    <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
         <v>220</v>
       </c>
@@ -5200,7 +5199,7 @@
         <v>13</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D168" t="s">
         <v>2</v>
@@ -5212,7 +5211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1">
+    <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
         <v>221</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>19</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D169" t="s">
         <v>2</v>
@@ -5232,15 +5231,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1">
+    <row r="170" spans="1:6">
       <c r="A170" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>458</v>
+      <c r="C170" t="s">
+        <v>477</v>
       </c>
       <c r="D170" t="s">
         <v>2</v>
@@ -5257,7 +5256,7 @@
         <v>223</v>
       </c>
       <c r="B171" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>80</v>
@@ -5272,7 +5271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1">
+    <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
         <v>224</v>
       </c>
@@ -5280,7 +5279,7 @@
         <v>16</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D172" t="s">
         <v>2</v>
@@ -5292,7 +5291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1">
+    <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
         <v>225</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>19</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D173" t="s">
         <v>2</v>
@@ -5312,7 +5311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1">
+    <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
         <v>226</v>
       </c>
@@ -5332,15 +5331,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1">
+    <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>458</v>
+      <c r="C175" t="s">
+        <v>477</v>
       </c>
       <c r="D175" t="s">
         <v>2</v>
@@ -5352,7 +5351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1">
+    <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
         <v>228</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>16</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D176" t="s">
         <v>2</v>
@@ -5372,7 +5371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1">
+    <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
         <v>229</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1">
+    <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
         <v>230</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>13</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D178" t="s">
         <v>2</v>
@@ -5412,7 +5411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1">
+    <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
         <v>231</v>
       </c>
@@ -5420,7 +5419,7 @@
         <v>19</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D179" t="s">
         <v>2</v>
@@ -5432,7 +5431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1">
+    <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
         <v>232</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>11</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D180" t="s">
         <v>2</v>
@@ -5452,7 +5451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1">
+    <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
         <v>233</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1">
+    <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
         <v>234</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>11</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D182" t="s">
         <v>2</v>
@@ -5492,7 +5491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1">
+    <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
         <v>235</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>13</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D183" t="s">
         <v>2</v>
@@ -5512,7 +5511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1">
+    <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
         <v>236</v>
       </c>
@@ -5520,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D184" t="s">
         <v>2</v>
@@ -5532,7 +5531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1">
+    <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
         <v>237</v>
       </c>
@@ -5552,7 +5551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1">
+    <row r="186" spans="1:6">
       <c r="A186" s="1" t="s">
         <v>238</v>
       </c>
@@ -5577,7 +5576,7 @@
         <v>239</v>
       </c>
       <c r="B187" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>68</v>
@@ -5597,7 +5596,7 @@
         <v>240</v>
       </c>
       <c r="B188" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>68</v>
@@ -5612,7 +5611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1">
+    <row r="189" spans="1:6">
       <c r="A189" s="1" t="s">
         <v>241</v>
       </c>
@@ -5620,7 +5619,7 @@
         <v>19</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D189" t="s">
         <v>2</v>
@@ -5632,7 +5631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1">
+    <row r="190" spans="1:6">
       <c r="A190" s="1" t="s">
         <v>242</v>
       </c>
@@ -5640,7 +5639,7 @@
         <v>19</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D190" t="s">
         <v>2</v>
@@ -5652,15 +5651,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1">
+    <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>458</v>
+      <c r="C191" t="s">
+        <v>477</v>
       </c>
       <c r="D191" t="s">
         <v>2</v>
@@ -5672,7 +5671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1">
+    <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
         <v>244</v>
       </c>
@@ -5680,7 +5679,7 @@
         <v>19</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D192" t="s">
         <v>2</v>
@@ -5692,7 +5691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1">
+    <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
         <v>245</v>
       </c>
@@ -5712,7 +5711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1">
+    <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
         <v>246</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1">
+    <row r="195" spans="1:6">
       <c r="A195" s="1" t="s">
         <v>247</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1">
+    <row r="196" spans="1:6">
       <c r="A196" s="1" t="s">
         <v>248</v>
       </c>
@@ -5760,7 +5759,7 @@
         <v>19</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D196" t="s">
         <v>2</v>
@@ -5772,7 +5771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1">
+    <row r="197" spans="1:6">
       <c r="A197" s="1" t="s">
         <v>249</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1">
+    <row r="198" spans="1:6">
       <c r="A198" s="1" t="s">
         <v>250</v>
       </c>
@@ -5812,7 +5811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1">
+    <row r="199" spans="1:6">
       <c r="A199" s="1" t="s">
         <v>251</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D199" t="s">
         <v>2</v>
@@ -5837,7 +5836,7 @@
         <v>252</v>
       </c>
       <c r="B200" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>80</v>
@@ -5852,7 +5851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1">
+    <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
         <v>253</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1">
+    <row r="202" spans="1:6">
       <c r="A202" s="1" t="s">
         <v>254</v>
       </c>
@@ -5880,7 +5879,7 @@
         <v>16</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D202" t="s">
         <v>2</v>
@@ -5892,7 +5891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1">
+    <row r="203" spans="1:6">
       <c r="A203" s="1" t="s">
         <v>255</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>256</v>
       </c>
       <c r="B204" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>68</v>
@@ -5932,7 +5931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1">
+    <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
         <v>257</v>
       </c>
@@ -5952,7 +5951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1">
+    <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
         <v>258</v>
       </c>
@@ -5972,16 +5971,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1">
+    <row r="207" spans="1:6">
       <c r="A207" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="D207" t="s">
         <v>2</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1">
+    <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
         <v>260</v>
       </c>
@@ -6012,7 +6011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1">
+    <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
         <v>261</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>262</v>
       </c>
       <c r="B210" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>68</v>
@@ -6052,7 +6051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1">
+    <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
         <v>263</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>19</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D211" t="s">
         <v>2</v>
@@ -6072,15 +6071,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1">
+    <row r="212" spans="1:6">
       <c r="A212" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>458</v>
+      <c r="C212" t="s">
+        <v>477</v>
       </c>
       <c r="D212" t="s">
         <v>2</v>
@@ -6092,7 +6091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1">
+    <row r="213" spans="1:6">
       <c r="A213" s="1" t="s">
         <v>265</v>
       </c>
@@ -6100,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D213" t="s">
         <v>2</v>
@@ -6112,7 +6111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1">
+    <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
         <v>266</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1">
+    <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
         <v>267</v>
       </c>
@@ -6152,7 +6151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1">
+    <row r="216" spans="1:6">
       <c r="A216" s="1" t="s">
         <v>268</v>
       </c>
@@ -6172,7 +6171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1">
+    <row r="217" spans="1:6">
       <c r="A217" s="1" t="s">
         <v>269</v>
       </c>
@@ -6192,7 +6191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1">
+    <row r="218" spans="1:6">
       <c r="A218" s="1" t="s">
         <v>270</v>
       </c>
@@ -6200,7 +6199,7 @@
         <v>16</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D218" t="s">
         <v>2</v>
@@ -6212,15 +6211,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1">
+    <row r="219" spans="1:6">
       <c r="A219" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>458</v>
+      <c r="C219" t="s">
+        <v>477</v>
       </c>
       <c r="D219" t="s">
         <v>2</v>
@@ -6232,7 +6231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1">
+    <row r="220" spans="1:6">
       <c r="A220" s="1" t="s">
         <v>272</v>
       </c>
@@ -6252,7 +6251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1">
+    <row r="221" spans="1:6">
       <c r="A221" s="1" t="s">
         <v>273</v>
       </c>
@@ -6272,7 +6271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1">
+    <row r="222" spans="1:6">
       <c r="A222" s="1" t="s">
         <v>274</v>
       </c>
@@ -6280,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D222" t="s">
         <v>2</v>
@@ -6292,7 +6291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1">
+    <row r="223" spans="1:6">
       <c r="A223" s="1" t="s">
         <v>275</v>
       </c>
@@ -6312,7 +6311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1">
+    <row r="224" spans="1:6">
       <c r="A224" s="1" t="s">
         <v>276</v>
       </c>
@@ -6320,7 +6319,7 @@
         <v>19</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D224" t="s">
         <v>2</v>
@@ -6332,7 +6331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1">
+    <row r="225" spans="1:6">
       <c r="A225" s="1" t="s">
         <v>277</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>19</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D225" t="s">
         <v>2</v>
@@ -6352,7 +6351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1">
+    <row r="226" spans="1:6">
       <c r="A226" s="1" t="s">
         <v>278</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>19</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D226" t="s">
         <v>2</v>
@@ -6372,7 +6371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1">
+    <row r="227" spans="1:6">
       <c r="A227" s="1" t="s">
         <v>279</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1">
+    <row r="228" spans="1:6">
       <c r="A228" s="1" t="s">
         <v>280</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1">
+    <row r="229" spans="1:6">
       <c r="A229" s="1" t="s">
         <v>281</v>
       </c>
@@ -6432,7 +6431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1">
+    <row r="230" spans="1:6">
       <c r="A230" s="1" t="s">
         <v>282</v>
       </c>
@@ -6452,7 +6451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1">
+    <row r="231" spans="1:6">
       <c r="A231" s="1" t="s">
         <v>283</v>
       </c>
@@ -6460,7 +6459,7 @@
         <v>19</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D231" t="s">
         <v>2</v>
@@ -6472,7 +6471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1">
+    <row r="232" spans="1:6">
       <c r="A232" s="1" t="s">
         <v>284</v>
       </c>
@@ -6492,7 +6491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1">
+    <row r="233" spans="1:6">
       <c r="A233" s="1" t="s">
         <v>285</v>
       </c>
@@ -6517,7 +6516,7 @@
         <v>286</v>
       </c>
       <c r="B234" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>80</v>
@@ -6532,7 +6531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1">
+    <row r="235" spans="1:6">
       <c r="A235" s="1" t="s">
         <v>287</v>
       </c>
@@ -6552,7 +6551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1">
+    <row r="236" spans="1:6">
       <c r="A236" s="1" t="s">
         <v>288</v>
       </c>
@@ -6572,7 +6571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1">
+    <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
         <v>289</v>
       </c>
@@ -6592,7 +6591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1">
+    <row r="238" spans="1:6">
       <c r="A238" s="1" t="s">
         <v>290</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1">
+    <row r="239" spans="1:6">
       <c r="A239" s="1" t="s">
         <v>291</v>
       </c>
@@ -6620,7 +6619,7 @@
         <v>19</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D239" t="s">
         <v>2</v>
@@ -6632,7 +6631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1">
+    <row r="240" spans="1:6">
       <c r="A240" s="1" t="s">
         <v>292</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>13</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D240" t="s">
         <v>2</v>
@@ -6652,7 +6651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1">
+    <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
         <v>293</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v>19</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D241" t="s">
         <v>2</v>
@@ -6672,7 +6671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1">
+    <row r="242" spans="1:6">
       <c r="A242" s="1" t="s">
         <v>294</v>
       </c>
@@ -6680,7 +6679,7 @@
         <v>19</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D242" t="s">
         <v>2</v>
@@ -6692,7 +6691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1">
+    <row r="243" spans="1:6">
       <c r="A243" s="1" t="s">
         <v>295</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1">
+    <row r="244" spans="1:6">
       <c r="A244" s="1" t="s">
         <v>296</v>
       </c>
@@ -6720,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D244" t="s">
         <v>2</v>
@@ -6737,7 +6736,7 @@
         <v>297</v>
       </c>
       <c r="B245" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>68</v>
@@ -6752,7 +6751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1">
+    <row r="246" spans="1:6">
       <c r="A246" s="1" t="s">
         <v>298</v>
       </c>
@@ -6772,15 +6771,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1">
+    <row r="247" spans="1:6">
       <c r="A247" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D247" t="s">
         <v>2</v>
@@ -6792,7 +6791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1">
+    <row r="248" spans="1:6">
       <c r="A248" s="1" t="s">
         <v>300</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>47</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D248" t="s">
         <v>2</v>
@@ -6812,7 +6811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1">
+    <row r="249" spans="1:6">
       <c r="A249" s="1" t="s">
         <v>301</v>
       </c>
@@ -6820,7 +6819,7 @@
         <v>19</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D249" t="s">
         <v>2</v>
@@ -6832,7 +6831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1">
+    <row r="250" spans="1:6">
       <c r="A250" s="1" t="s">
         <v>302</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>19</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D250" t="s">
         <v>2</v>
@@ -6852,7 +6851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1">
+    <row r="251" spans="1:6">
       <c r="A251" s="1" t="s">
         <v>303</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>19</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D251" t="s">
         <v>2</v>
@@ -6872,7 +6871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1">
+    <row r="252" spans="1:6">
       <c r="A252" s="1" t="s">
         <v>304</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1">
+    <row r="253" spans="1:6">
       <c r="A253" s="1" t="s">
         <v>305</v>
       </c>
@@ -6900,7 +6899,7 @@
         <v>19</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D253" t="s">
         <v>2</v>
@@ -6912,7 +6911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1">
+    <row r="254" spans="1:6">
       <c r="A254" s="1" t="s">
         <v>306</v>
       </c>
@@ -6920,7 +6919,7 @@
         <v>19</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D254" t="s">
         <v>2</v>
@@ -6932,7 +6931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1">
+    <row r="255" spans="1:6">
       <c r="A255" s="1" t="s">
         <v>307</v>
       </c>
@@ -6940,7 +6939,7 @@
         <v>19</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D255" t="s">
         <v>2</v>
@@ -6957,7 +6956,7 @@
         <v>308</v>
       </c>
       <c r="B256" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>68</v>
@@ -6972,7 +6971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1">
+    <row r="257" spans="1:6">
       <c r="A257" s="1" t="s">
         <v>309</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1">
+    <row r="258" spans="1:6">
       <c r="A258" s="1" t="s">
         <v>310</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1">
+    <row r="259" spans="1:6">
       <c r="A259" s="1" t="s">
         <v>311</v>
       </c>
@@ -7032,7 +7031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1">
+    <row r="260" spans="1:6">
       <c r="A260" s="1" t="s">
         <v>312</v>
       </c>
@@ -7040,7 +7039,7 @@
         <v>47</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D260" t="s">
         <v>2</v>
@@ -7052,7 +7051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1">
+    <row r="261" spans="1:6">
       <c r="A261" s="1" t="s">
         <v>313</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>47</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D261" t="s">
         <v>2</v>
@@ -7072,7 +7071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1">
+    <row r="262" spans="1:6">
       <c r="A262" s="1" t="s">
         <v>314</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>315</v>
       </c>
       <c r="B263" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>9</v>
@@ -7112,7 +7111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1">
+    <row r="264" spans="1:6">
       <c r="A264" s="1" t="s">
         <v>316</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>19</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D264" t="s">
         <v>2</v>
@@ -7132,7 +7131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1">
+    <row r="265" spans="1:6">
       <c r="A265" s="1" t="s">
         <v>317</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1">
+    <row r="266" spans="1:6">
       <c r="A266" s="1" t="s">
         <v>318</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1">
+    <row r="267" spans="1:6">
       <c r="A267" s="1" t="s">
         <v>319</v>
       </c>
@@ -7197,7 +7196,7 @@
         <v>320</v>
       </c>
       <c r="B268" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>68</v>
@@ -7212,7 +7211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1">
+    <row r="269" spans="1:6">
       <c r="A269" s="1" t="s">
         <v>321</v>
       </c>
@@ -7232,7 +7231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1">
+    <row r="270" spans="1:6">
       <c r="A270" s="1" t="s">
         <v>322</v>
       </c>
@@ -7252,7 +7251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1">
+    <row r="271" spans="1:6">
       <c r="A271" s="1" t="s">
         <v>323</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1">
+    <row r="272" spans="1:6">
       <c r="A272" s="1" t="s">
         <v>324</v>
       </c>
@@ -7280,7 +7279,7 @@
         <v>11</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D272" t="s">
         <v>2</v>
@@ -7292,7 +7291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1">
+    <row r="273" spans="1:6">
       <c r="A273" s="1" t="s">
         <v>325</v>
       </c>
@@ -7300,7 +7299,7 @@
         <v>47</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D273" t="s">
         <v>2</v>
@@ -7317,7 +7316,7 @@
         <v>326</v>
       </c>
       <c r="B274" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>9</v>
@@ -7337,7 +7336,7 @@
         <v>327</v>
       </c>
       <c r="B275" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>9</v>
@@ -7357,7 +7356,7 @@
         <v>328</v>
       </c>
       <c r="B276" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>9</v>
@@ -7372,7 +7371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1">
+    <row r="277" spans="1:6">
       <c r="A277" s="1" t="s">
         <v>329</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1">
+    <row r="278" spans="1:6">
       <c r="A278" s="1" t="s">
         <v>330</v>
       </c>
@@ -7400,7 +7399,7 @@
         <v>11</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D278" t="s">
         <v>2</v>
@@ -7417,7 +7416,7 @@
         <v>331</v>
       </c>
       <c r="B279" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>80</v>
@@ -7432,7 +7431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1">
+    <row r="280" spans="1:6">
       <c r="A280" s="1" t="s">
         <v>332</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1">
+    <row r="281" spans="1:6">
       <c r="A281" s="1" t="s">
         <v>333</v>
       </c>
@@ -7472,7 +7471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1">
+    <row r="282" spans="1:6">
       <c r="A282" s="1" t="s">
         <v>334</v>
       </c>
@@ -7492,7 +7491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1">
+    <row r="283" spans="1:6">
       <c r="A283" s="1" t="s">
         <v>335</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1">
+    <row r="284" spans="1:6">
       <c r="A284" s="1" t="s">
         <v>336</v>
       </c>
@@ -7532,7 +7531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1">
+    <row r="285" spans="1:6">
       <c r="A285" s="1" t="s">
         <v>337</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1">
+    <row r="286" spans="1:6">
       <c r="A286" s="1" t="s">
         <v>338</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>13</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D286" t="s">
         <v>2</v>
@@ -7577,7 +7576,7 @@
         <v>339</v>
       </c>
       <c r="B287" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>68</v>
@@ -7592,7 +7591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1">
+    <row r="288" spans="1:6">
       <c r="A288" s="1" t="s">
         <v>340</v>
       </c>
@@ -7612,7 +7611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1">
+    <row r="289" spans="1:6">
       <c r="A289" s="1" t="s">
         <v>341</v>
       </c>
@@ -7632,7 +7631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1">
+    <row r="290" spans="1:6">
       <c r="A290" s="1" t="s">
         <v>342</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>343</v>
       </c>
       <c r="B291" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>68</v>
@@ -7677,7 +7676,7 @@
         <v>344</v>
       </c>
       <c r="B292" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>68</v>
@@ -7692,7 +7691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1">
+    <row r="293" spans="1:6">
       <c r="A293" s="1" t="s">
         <v>345</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>346</v>
       </c>
       <c r="B294" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>9</v>
@@ -7732,15 +7731,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1">
+    <row r="295" spans="1:6">
       <c r="A295" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D295" t="s">
         <v>2</v>
@@ -7757,7 +7756,7 @@
         <v>348</v>
       </c>
       <c r="B296" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>80</v>
@@ -7772,7 +7771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1">
+    <row r="297" spans="1:6">
       <c r="A297" s="1" t="s">
         <v>349</v>
       </c>
@@ -7780,7 +7779,7 @@
         <v>19</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D297" t="s">
         <v>2</v>
@@ -7792,7 +7791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1">
+    <row r="298" spans="1:6">
       <c r="A298" s="1" t="s">
         <v>350</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>13</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D298" t="s">
         <v>2</v>
@@ -7812,7 +7811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1">
+    <row r="299" spans="1:6">
       <c r="A299" s="1" t="s">
         <v>351</v>
       </c>
@@ -7820,7 +7819,7 @@
         <v>16</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D299" t="s">
         <v>2</v>
@@ -7832,7 +7831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1">
+    <row r="300" spans="1:6">
       <c r="A300" s="1" t="s">
         <v>352</v>
       </c>
@@ -7840,7 +7839,7 @@
         <v>13</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D300" t="s">
         <v>2</v>
@@ -7852,7 +7851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1">
+    <row r="301" spans="1:6">
       <c r="A301" s="1" t="s">
         <v>353</v>
       </c>
@@ -7860,7 +7859,7 @@
         <v>19</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D301" t="s">
         <v>2</v>
@@ -7872,7 +7871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1">
+    <row r="302" spans="1:6">
       <c r="A302" s="1" t="s">
         <v>354</v>
       </c>
@@ -7892,7 +7891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1">
+    <row r="303" spans="1:6">
       <c r="A303" s="1" t="s">
         <v>355</v>
       </c>
@@ -7912,7 +7911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1">
+    <row r="304" spans="1:6">
       <c r="A304" s="1" t="s">
         <v>356</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1">
+    <row r="305" spans="1:6">
       <c r="A305" s="1" t="s">
         <v>357</v>
       </c>
@@ -7940,7 +7939,7 @@
         <v>19</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D305" t="s">
         <v>2</v>
@@ -7952,7 +7951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1">
+    <row r="306" spans="1:6">
       <c r="A306" s="1" t="s">
         <v>358</v>
       </c>
@@ -7960,7 +7959,7 @@
         <v>16</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D306" t="s">
         <v>2</v>
@@ -7972,7 +7971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1">
+    <row r="307" spans="1:6">
       <c r="A307" s="1" t="s">
         <v>359</v>
       </c>
@@ -7992,7 +7991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1">
+    <row r="308" spans="1:6">
       <c r="A308" s="1" t="s">
         <v>360</v>
       </c>
@@ -8012,7 +8011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1">
+    <row r="309" spans="1:6">
       <c r="A309" s="1" t="s">
         <v>361</v>
       </c>
@@ -8032,7 +8031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1">
+    <row r="310" spans="1:6">
       <c r="A310" s="1" t="s">
         <v>362</v>
       </c>
@@ -8052,7 +8051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1">
+    <row r="311" spans="1:6">
       <c r="A311" s="1" t="s">
         <v>363</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>364</v>
       </c>
       <c r="B312" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>80</v>
@@ -8092,7 +8091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1">
+    <row r="313" spans="1:6">
       <c r="A313" s="1" t="s">
         <v>365</v>
       </c>
@@ -8100,7 +8099,7 @@
         <v>19</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D313" t="s">
         <v>2</v>
@@ -8112,7 +8111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1">
+    <row r="314" spans="1:6">
       <c r="A314" s="1" t="s">
         <v>366</v>
       </c>
@@ -8132,7 +8131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1">
+    <row r="315" spans="1:6">
       <c r="A315" s="1" t="s">
         <v>367</v>
       </c>
@@ -8140,7 +8139,7 @@
         <v>19</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D315" t="s">
         <v>2</v>
@@ -8152,7 +8151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1">
+    <row r="316" spans="1:6">
       <c r="A316" s="1" t="s">
         <v>368</v>
       </c>
@@ -8172,7 +8171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1">
+    <row r="317" spans="1:6">
       <c r="A317" s="1" t="s">
         <v>369</v>
       </c>
@@ -8192,7 +8191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1">
+    <row r="318" spans="1:6">
       <c r="A318" s="1" t="s">
         <v>370</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>16</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D318" t="s">
         <v>2</v>
@@ -8217,7 +8216,7 @@
         <v>371</v>
       </c>
       <c r="B319" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>80</v>
@@ -8232,7 +8231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1">
+    <row r="320" spans="1:6">
       <c r="A320" s="1" t="s">
         <v>372</v>
       </c>
@@ -8252,7 +8251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1">
+    <row r="321" spans="1:6">
       <c r="A321" s="1" t="s">
         <v>373</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>19</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D321" t="s">
         <v>2</v>
@@ -8277,7 +8276,7 @@
         <v>374</v>
       </c>
       <c r="B322" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>80</v>
@@ -8292,7 +8291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1">
+    <row r="323" spans="1:6">
       <c r="A323" s="1" t="s">
         <v>375</v>
       </c>
@@ -8300,7 +8299,7 @@
         <v>19</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D323" t="s">
         <v>2</v>
@@ -8312,7 +8311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1">
+    <row r="324" spans="1:6">
       <c r="A324" s="1" t="s">
         <v>376</v>
       </c>
@@ -8320,7 +8319,7 @@
         <v>19</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D324" t="s">
         <v>2</v>
@@ -8332,7 +8331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1">
+    <row r="325" spans="1:6">
       <c r="A325" s="1" t="s">
         <v>377</v>
       </c>
@@ -8352,7 +8351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1">
+    <row r="326" spans="1:6">
       <c r="A326" s="1" t="s">
         <v>378</v>
       </c>
@@ -8360,7 +8359,7 @@
         <v>19</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D326" t="s">
         <v>2</v>
@@ -8372,7 +8371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1">
+    <row r="327" spans="1:6">
       <c r="A327" s="1" t="s">
         <v>379</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>11</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D327" t="s">
         <v>2</v>
@@ -8392,7 +8391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1">
+    <row r="328" spans="1:6">
       <c r="A328" s="1" t="s">
         <v>380</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>13</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D328" t="s">
         <v>2</v>
@@ -8412,7 +8411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1">
+    <row r="329" spans="1:6">
       <c r="A329" s="1" t="s">
         <v>381</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1">
+    <row r="330" spans="1:6">
       <c r="A330" s="1" t="s">
         <v>382</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>19</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D330" t="s">
         <v>2</v>
@@ -8452,15 +8451,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1">
+    <row r="331" spans="1:6">
       <c r="A331" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C331" s="1" t="s">
-        <v>458</v>
+      <c r="C331" t="s">
+        <v>477</v>
       </c>
       <c r="D331" t="s">
         <v>2</v>
@@ -8472,7 +8471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1">
+    <row r="332" spans="1:6">
       <c r="A332" s="1" t="s">
         <v>384</v>
       </c>
@@ -8480,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D332" t="s">
         <v>2</v>
@@ -8492,15 +8491,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1">
+    <row r="333" spans="1:6">
       <c r="A333" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C333" s="1" t="s">
-        <v>458</v>
+      <c r="C333" t="s">
+        <v>477</v>
       </c>
       <c r="D333" t="s">
         <v>2</v>
@@ -8512,7 +8511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1">
+    <row r="334" spans="1:6">
       <c r="A334" s="1" t="s">
         <v>386</v>
       </c>
@@ -8532,7 +8531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1">
+    <row r="335" spans="1:6">
       <c r="A335" s="1" t="s">
         <v>387</v>
       </c>
@@ -8540,7 +8539,7 @@
         <v>11</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D335" t="s">
         <v>2</v>
@@ -8552,7 +8551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1">
+    <row r="336" spans="1:6">
       <c r="A336" s="1" t="s">
         <v>388</v>
       </c>
@@ -8560,7 +8559,7 @@
         <v>16</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D336" t="s">
         <v>2</v>
@@ -8572,7 +8571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1">
+    <row r="337" spans="1:6">
       <c r="A337" s="1" t="s">
         <v>389</v>
       </c>
@@ -8592,7 +8591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1">
+    <row r="338" spans="1:6">
       <c r="A338" s="1" t="s">
         <v>390</v>
       </c>
@@ -8600,7 +8599,7 @@
         <v>13</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D338" t="s">
         <v>2</v>
@@ -8612,7 +8611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1">
+    <row r="339" spans="1:6">
       <c r="A339" s="1" t="s">
         <v>391</v>
       </c>
@@ -8637,7 +8636,7 @@
         <v>392</v>
       </c>
       <c r="B340" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>68</v>
@@ -8652,7 +8651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1">
+    <row r="341" spans="1:6">
       <c r="A341" s="1" t="s">
         <v>393</v>
       </c>
@@ -8672,7 +8671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1">
+    <row r="342" spans="1:6">
       <c r="A342" s="1" t="s">
         <v>394</v>
       </c>
@@ -8692,7 +8691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1">
+    <row r="343" spans="1:6">
       <c r="A343" s="1" t="s">
         <v>395</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1">
+    <row r="344" spans="1:6">
       <c r="A344" s="1" t="s">
         <v>396</v>
       </c>
@@ -8720,7 +8719,7 @@
         <v>13</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D344" t="s">
         <v>2</v>
@@ -8732,7 +8731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1">
+    <row r="345" spans="1:6">
       <c r="A345" s="1" t="s">
         <v>397</v>
       </c>
@@ -8752,7 +8751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1">
+    <row r="346" spans="1:6">
       <c r="A346" s="1" t="s">
         <v>398</v>
       </c>
@@ -8772,7 +8771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1">
+    <row r="347" spans="1:6">
       <c r="A347" s="1" t="s">
         <v>399</v>
       </c>
@@ -8780,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D347" t="s">
         <v>2</v>
@@ -8792,7 +8791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1">
+    <row r="348" spans="1:6">
       <c r="A348" s="1" t="s">
         <v>400</v>
       </c>
@@ -8812,7 +8811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1">
+    <row r="349" spans="1:6">
       <c r="A349" s="1" t="s">
         <v>401</v>
       </c>
@@ -8820,7 +8819,7 @@
         <v>19</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D349" t="s">
         <v>2</v>
@@ -8832,7 +8831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1">
+    <row r="350" spans="1:6">
       <c r="A350" s="1" t="s">
         <v>402</v>
       </c>
@@ -8840,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D350" t="s">
         <v>2</v>
@@ -8852,7 +8851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1">
+    <row r="351" spans="1:6">
       <c r="A351" s="1" t="s">
         <v>403</v>
       </c>
@@ -8860,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D351" t="s">
         <v>2</v>
@@ -8877,7 +8876,7 @@
         <v>404</v>
       </c>
       <c r="B352" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>80</v>
@@ -8897,10 +8896,10 @@
         <v>405</v>
       </c>
       <c r="B353" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D353" t="s">
         <v>2</v>
@@ -8912,7 +8911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1">
+    <row r="354" spans="1:6">
       <c r="A354" s="1" t="s">
         <v>406</v>
       </c>
@@ -8920,7 +8919,7 @@
         <v>19</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D354" t="s">
         <v>2</v>
@@ -8932,7 +8931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1">
+    <row r="355" spans="1:6">
       <c r="A355" s="1" t="s">
         <v>407</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1">
+    <row r="356" spans="1:6">
       <c r="A356" s="1" t="s">
         <v>408</v>
       </c>
@@ -8960,7 +8959,7 @@
         <v>11</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D356" t="s">
         <v>2</v>
@@ -8972,7 +8971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1">
+    <row r="357" spans="1:6">
       <c r="A357" s="1" t="s">
         <v>409</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1">
+    <row r="358" spans="1:6">
       <c r="A358" s="1" t="s">
         <v>410</v>
       </c>
@@ -9000,7 +8999,7 @@
         <v>13</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D358" t="s">
         <v>2</v>
@@ -9017,7 +9016,7 @@
         <v>411</v>
       </c>
       <c r="B359" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>68</v>
@@ -9032,16 +9031,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1">
+    <row r="360" spans="1:6">
       <c r="A360" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B360" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C360" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C360" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="D360" t="s">
         <v>2</v>
       </c>
@@ -9052,7 +9051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1">
+    <row r="361" spans="1:6">
       <c r="A361" s="1" t="s">
         <v>413</v>
       </c>
@@ -9060,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D361" t="s">
         <v>2</v>
@@ -9077,10 +9076,10 @@
         <v>414</v>
       </c>
       <c r="B362" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D362" t="s">
         <v>2</v>
@@ -9092,15 +9091,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1">
+    <row r="363" spans="1:6">
       <c r="A363" s="1" t="s">
         <v>415</v>
       </c>
       <c r="B363" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="D363" t="s">
         <v>2</v>
@@ -9117,7 +9116,7 @@
         <v>416</v>
       </c>
       <c r="B364" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>68</v>
@@ -9137,7 +9136,7 @@
         <v>417</v>
       </c>
       <c r="B365" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>80</v>
@@ -9152,7 +9151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1">
+    <row r="366" spans="1:6">
       <c r="A366" s="1" t="s">
         <v>418</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>19</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D366" t="s">
         <v>2</v>
@@ -9177,7 +9176,7 @@
         <v>419</v>
       </c>
       <c r="B367" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>80</v>
@@ -9197,10 +9196,10 @@
         <v>420</v>
       </c>
       <c r="B368" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D368" t="s">
         <v>2</v>
@@ -9212,15 +9211,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1">
+    <row r="369" spans="1:6">
       <c r="A369" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C369" s="1" t="s">
-        <v>458</v>
+      <c r="C369" t="s">
+        <v>477</v>
       </c>
       <c r="D369" t="s">
         <v>2</v>
@@ -9232,7 +9231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1">
+    <row r="370" spans="1:6">
       <c r="A370" s="1" t="s">
         <v>422</v>
       </c>
@@ -9252,7 +9251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1">
+    <row r="371" spans="1:6">
       <c r="A371" s="1" t="s">
         <v>423</v>
       </c>
@@ -9272,7 +9271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1">
+    <row r="372" spans="1:6">
       <c r="A372" s="1" t="s">
         <v>424</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1">
+    <row r="373" spans="1:6">
       <c r="A373" s="1" t="s">
         <v>425</v>
       </c>
@@ -9312,7 +9311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1">
+    <row r="374" spans="1:6">
       <c r="A374" s="1" t="s">
         <v>426</v>
       </c>
@@ -9337,7 +9336,7 @@
         <v>427</v>
       </c>
       <c r="B375" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>80</v>
@@ -9357,7 +9356,7 @@
         <v>428</v>
       </c>
       <c r="B376" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>80</v>
@@ -9377,7 +9376,7 @@
         <v>429</v>
       </c>
       <c r="B377" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>80</v>
@@ -9392,7 +9391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1">
+    <row r="378" spans="1:6">
       <c r="A378" s="1" t="s">
         <v>430</v>
       </c>
@@ -9412,7 +9411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1">
+    <row r="379" spans="1:6">
       <c r="A379" s="1" t="s">
         <v>431</v>
       </c>
@@ -9420,7 +9419,7 @@
         <v>13</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D379" t="s">
         <v>2</v>
@@ -9432,7 +9431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1">
+    <row r="380" spans="1:6">
       <c r="A380" s="1" t="s">
         <v>432</v>
       </c>
@@ -9452,7 +9451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1">
+    <row r="381" spans="1:6">
       <c r="A381" s="1" t="s">
         <v>433</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>19</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D381" t="s">
         <v>2</v>
@@ -9472,7 +9471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1">
+    <row r="382" spans="1:6">
       <c r="A382" s="1" t="s">
         <v>434</v>
       </c>
@@ -9480,7 +9479,7 @@
         <v>19</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D382" t="s">
         <v>2</v>
@@ -9492,7 +9491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1">
+    <row r="383" spans="1:6">
       <c r="A383" s="1" t="s">
         <v>435</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1">
+    <row r="384" spans="1:6">
       <c r="A384" s="1" t="s">
         <v>436</v>
       </c>
@@ -9537,7 +9536,7 @@
         <v>437</v>
       </c>
       <c r="B385" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>80</v>
@@ -9552,7 +9551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1">
+    <row r="386" spans="1:6">
       <c r="A386" s="1" t="s">
         <v>438</v>
       </c>
@@ -9572,7 +9571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1">
+    <row r="387" spans="1:6">
       <c r="A387" s="1" t="s">
         <v>439</v>
       </c>
@@ -9580,7 +9579,7 @@
         <v>19</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D387" t="s">
         <v>2</v>
@@ -9592,7 +9591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1">
+    <row r="388" spans="1:6">
       <c r="A388" s="1" t="s">
         <v>440</v>
       </c>
@@ -9600,7 +9599,7 @@
         <v>19</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D388" t="s">
         <v>2</v>
@@ -9612,7 +9611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1">
+    <row r="389" spans="1:6">
       <c r="A389" s="1" t="s">
         <v>441</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>11</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D389" t="s">
         <v>2</v>
@@ -9632,7 +9631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1">
+    <row r="390" spans="1:6">
       <c r="A390" s="1" t="s">
         <v>442</v>
       </c>
@@ -9652,7 +9651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1">
+    <row r="391" spans="1:6">
       <c r="A391" s="1" t="s">
         <v>443</v>
       </c>
@@ -9672,7 +9671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1">
+    <row r="392" spans="1:6">
       <c r="A392" s="1" t="s">
         <v>444</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1">
+    <row r="393" spans="1:6">
       <c r="A393" s="1" t="s">
         <v>445</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>19</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D393" t="s">
         <v>2</v>
@@ -9712,7 +9711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1">
+    <row r="394" spans="1:6">
       <c r="A394" s="1" t="s">
         <v>446</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D394" t="s">
         <v>2</v>
@@ -9732,7 +9731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1">
+    <row r="395" spans="1:6">
       <c r="A395" s="1" t="s">
         <v>447</v>
       </c>
@@ -9752,7 +9751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1">
+    <row r="396" spans="1:6">
       <c r="A396" s="1" t="s">
         <v>448</v>
       </c>
@@ -9772,7 +9771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1">
+    <row r="397" spans="1:6">
       <c r="A397" s="1" t="s">
         <v>449</v>
       </c>
@@ -9792,7 +9791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1">
+    <row r="398" spans="1:6">
       <c r="A398" s="1" t="s">
         <v>450</v>
       </c>
@@ -9800,7 +9799,7 @@
         <v>47</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D398" t="s">
         <v>2</v>
@@ -9812,7 +9811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1">
+    <row r="399" spans="1:6">
       <c r="A399" s="1" t="s">
         <v>451</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>16</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D399" t="s">
         <v>2</v>
@@ -9832,7 +9831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1">
+    <row r="400" spans="1:6">
       <c r="A400" s="1" t="s">
         <v>452</v>
       </c>
@@ -9840,7 +9839,7 @@
         <v>13</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D400" t="s">
         <v>2</v>
@@ -9852,7 +9851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1">
+    <row r="401" spans="1:6">
       <c r="A401" s="1" t="s">
         <v>453</v>
       </c>
@@ -9860,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D401" t="s">
         <v>2</v>
@@ -9874,13 +9873,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:C401" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Finance (Internal)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C401" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
